--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter02/Summary_02_02.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter02/Summary_02_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D22033C-E875-4B51-A4D2-EFC71B1FE930}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0CBB73-BE92-45E3-A44E-EB02F8983E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -872,7 +872,7 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -4602,7 +4602,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DEA82EB-3407-4106-9D29-25141BDA1135}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DEA82EB-3407-4106-9D29-25141BDA1135}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D13" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -4792,7 +4792,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5091,10 +5091,10 @@
   <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -5295,7 +5295,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
